--- a/GestStratEntr-J3c_Analyse interne_fonctions-entreprise.xlsx
+++ b/GestStratEntr-J3c_Analyse interne_fonctions-entreprise.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\3eme\S5\GET\GET_Projet_Bonbons\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9EA7D21-E0CD-46A2-AC57-8EFC36863420}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fonctions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Fonctions priorités" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Fonctions" sheetId="1" r:id="rId1"/>
+    <sheet name="Fonctions priorités" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Fonctions priorités'!$A$5:$G$5</definedName>
-    <definedName function="false" hidden="false" name="tbl_porter_clients" vbProcedure="false">[1]!tableau1113[#all]</definedName>
-    <definedName function="false" hidden="false" name="tbl_porter_fournisseurs" vbProcedure="false">[1]!tableau11[#all]</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fonctions priorités'!$A$5:$G$5</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,17 +29,17 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -53,7 +57,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">5: 0-3 mois
+          <t>5: 0-3 mois
 4: 4-6 mois
 3: 7-9 mois
 2: 10-12 mois
@@ -68,569 +72,566 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="185">
   <si>
-    <t xml:space="preserve">Analyse interne : fonctions de l'entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche des forces et des faiblesses de l'entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction commerciale, marketing, vente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portefeuille produits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rentabilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacité de production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume des ventes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endettement à long terme et moyen termes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualité de la production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parts de marché</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endettement à court terme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexibilité de la production, quantitative et qualitative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Répartition géographique du CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solvabilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taux de sous-traitance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Répartition par canaux de distribution du CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trésorerie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Délais de production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politique de marge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stocks (évolution et poids)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age de la technologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image de marque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créances clients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age des équipements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etendue de la gamme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sources de financement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coûts de production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualité des produits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'entreprise est-elle rachetable, opérable ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localisation de la production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualité des services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotation boursière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualité du SAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politique de prix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dettes fournisseurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure des coûts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fidélité de la clientèle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part des frais financiers dans le CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logistique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localisation du réseau de distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexibilité financière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité de la force de vente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité de la publicité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité des promotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité du marketing direct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction personnel (RH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction administration, gestion, organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovations technologiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyramide des âges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une structure a-t-elle été clairement définie ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovations du process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un organigramme à jour est-il diffusé ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovations produits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La structure est-elle adaptée à la stratégie ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovations services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotation du personnel (turn over)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les mécanismes de coordination sont-ils adaptés à l'activité ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dépôts de brevets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absentéisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les fonction importantes sont-elles rattachées à la direction ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potentiel de recherche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rémunération</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le système d'information est-il cohérent avec la structure ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyens affectés à la R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part des salaires dans le CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La surveillance de l'environnement est-elle intégrée dans la structure ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intégration de la R&amp;D dans la structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacité d'attraction des compétences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La structure est-elle adaptée à l'évolution de l'environnement ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptation au marché des innovations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les procédures essentielles sont-elles définies ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existe-t-il des valeurs communes en terme de culture ? Sont-elles diffusées ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'histoire de l'entreprise est-elle connue ? Valorisée ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'entreprise a-t-elle des héros ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'entreprise entretient-elle des mythes ? Développement de symboles d'appartenance à des rites ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un langage propre est-il développé ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La culture est-elle bureaucratique ? Fermée ? Ouverte ?Réactive ? Adaptative ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La culture est-elle orientée marché, recherche, production ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le personnel a-t-il le sentiment d'appartenance ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La culture est-elle adaptée à la stratégie d'entreprise ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La culture est-elle adaptée au secteur et à son évolution ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction logistique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction achat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de la qualité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité des approvisionnements (tx de disponibilité, délais de livraison)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité de la stratégie ACHATS (Analyse des besoins/marché/politique)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identification des processus entreprise (objectifs et indicateurs à mettre en place pour les processus)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politique des stocks (valeur et couverture)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pré/séléction des fournisseurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identification des ressources existantes/nécessaires (RH, IT, etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité des transports (CM et taux de remplissage des moyens de transport)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maîtrise de la négociation et gestion de la relation avec les fournisseurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurer l'adhésion du haut management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maîtrise des coûts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contractualiser les relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurer l'adhésion des collaborateurs à l'ensemble du système de gestion de la qualité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité de la qualité de service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maîtriser l'éxecution des contrats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilotage des processus entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité de l'image de l'entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piloter la performance achats/fournisseurs/transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création du système documentaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des flux d'informations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion du développement fournisseurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place et contrôle des actions préventives / correctives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibilités d'externatlisation de l'entreprise (définit ce qu'elle maîtrise)</t>
+    <t>Analyse interne : fonctions de l'entreprise</t>
+  </si>
+  <si>
+    <t>Recherche des forces et des faiblesses de l'entreprise</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Fonction commerciale, marketing, vente</t>
+  </si>
+  <si>
+    <t>Fonction finance</t>
+  </si>
+  <si>
+    <t>Fonction production</t>
+  </si>
+  <si>
+    <t>Portefeuille produits</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Rentabilité</t>
+  </si>
+  <si>
+    <t>Capacité de production</t>
+  </si>
+  <si>
+    <t>Volume des ventes</t>
+  </si>
+  <si>
+    <t>Endettement à long terme et moyen termes</t>
+  </si>
+  <si>
+    <t>Qualité de la production</t>
+  </si>
+  <si>
+    <t>Parts de marché</t>
+  </si>
+  <si>
+    <t>Endettement à court terme</t>
+  </si>
+  <si>
+    <t>Flexibilité de la production, quantitative et qualitative</t>
+  </si>
+  <si>
+    <t>Répartition géographique du CA</t>
+  </si>
+  <si>
+    <t>Solvabilité</t>
+  </si>
+  <si>
+    <t>Taux de sous-traitance</t>
+  </si>
+  <si>
+    <t>Répartition par canaux de distribution du CA</t>
+  </si>
+  <si>
+    <t>Trésorerie</t>
+  </si>
+  <si>
+    <t>Délais de production</t>
+  </si>
+  <si>
+    <t>Politique de marge</t>
+  </si>
+  <si>
+    <t>Stocks (évolution et poids)</t>
+  </si>
+  <si>
+    <t>Age de la technologie</t>
+  </si>
+  <si>
+    <t>Image de marque</t>
+  </si>
+  <si>
+    <t>Créances clients</t>
+  </si>
+  <si>
+    <t>Age des équipements</t>
+  </si>
+  <si>
+    <t>Etendue de la gamme</t>
+  </si>
+  <si>
+    <t>Sources de financement</t>
+  </si>
+  <si>
+    <t>Coûts de production</t>
+  </si>
+  <si>
+    <t>Qualité des produits</t>
+  </si>
+  <si>
+    <t>L'entreprise est-elle rachetable, opérable ?</t>
+  </si>
+  <si>
+    <t>Localisation de la production</t>
+  </si>
+  <si>
+    <t>Qualité des services</t>
+  </si>
+  <si>
+    <t>Cotation boursière</t>
+  </si>
+  <si>
+    <t>Qualité du SAV</t>
+  </si>
+  <si>
+    <t>Politique de prix</t>
+  </si>
+  <si>
+    <t>Dettes fournisseurs</t>
+  </si>
+  <si>
+    <t>Structure des coûts</t>
+  </si>
+  <si>
+    <t>Fidélité de la clientèle</t>
+  </si>
+  <si>
+    <t>Part des frais financiers dans le CA</t>
+  </si>
+  <si>
+    <t>Logistique</t>
+  </si>
+  <si>
+    <t>Localisation du réseau de distribution</t>
+  </si>
+  <si>
+    <t>Flexibilité financière</t>
+  </si>
+  <si>
+    <t>Efficacité de la force de vente</t>
+  </si>
+  <si>
+    <t>Efficacité de la publicité</t>
+  </si>
+  <si>
+    <t>Efficacité des promotions</t>
+  </si>
+  <si>
+    <t>Efficacité du marketing direct</t>
+  </si>
+  <si>
+    <t>Fonction R&amp;D</t>
+  </si>
+  <si>
+    <t>Fonction personnel (RH)</t>
+  </si>
+  <si>
+    <t>Fonction administration, gestion, organisation</t>
+  </si>
+  <si>
+    <t>Innovations technologiques</t>
+  </si>
+  <si>
+    <t>Pyramide des âges</t>
+  </si>
+  <si>
+    <t>Une structure a-t-elle été clairement définie ?</t>
+  </si>
+  <si>
+    <t>Innovations du process</t>
+  </si>
+  <si>
+    <t>Compétences</t>
+  </si>
+  <si>
+    <t>Un organigramme à jour est-il diffusé ?</t>
+  </si>
+  <si>
+    <t>Innovations produits</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>La structure est-elle adaptée à la stratégie ?</t>
+  </si>
+  <si>
+    <t>Innovations services</t>
+  </si>
+  <si>
+    <t>Rotation du personnel (turn over)</t>
+  </si>
+  <si>
+    <t>Les mécanismes de coordination sont-ils adaptés à l'activité ?</t>
+  </si>
+  <si>
+    <t>Dépôts de brevets</t>
+  </si>
+  <si>
+    <t>Absentéisme</t>
+  </si>
+  <si>
+    <t>Les fonction importantes sont-elles rattachées à la direction ?</t>
+  </si>
+  <si>
+    <t>Potentiel de recherche</t>
+  </si>
+  <si>
+    <t>Rémunération</t>
+  </si>
+  <si>
+    <t>Le système d'information est-il cohérent avec la structure ?</t>
+  </si>
+  <si>
+    <t>Moyens affectés à la R&amp;D</t>
+  </si>
+  <si>
+    <t>Part des salaires dans le CA</t>
+  </si>
+  <si>
+    <t>La surveillance de l'environnement est-elle intégrée dans la structure ?</t>
+  </si>
+  <si>
+    <t>Intégration de la R&amp;D dans la structure</t>
+  </si>
+  <si>
+    <t>Capacité d'attraction des compétences</t>
+  </si>
+  <si>
+    <t>La structure est-elle adaptée à l'évolution de l'environnement ?</t>
+  </si>
+  <si>
+    <t>Adaptation au marché des innovations</t>
+  </si>
+  <si>
+    <t>Les procédures essentielles sont-elles définies ?</t>
+  </si>
+  <si>
+    <t>Existe-t-il des valeurs communes en terme de culture ? Sont-elles diffusées ?</t>
+  </si>
+  <si>
+    <t>L'histoire de l'entreprise est-elle connue ? Valorisée ?</t>
+  </si>
+  <si>
+    <t>L'entreprise a-t-elle des héros ?</t>
+  </si>
+  <si>
+    <t>L'entreprise entretient-elle des mythes ? Développement de symboles d'appartenance à des rites ?</t>
+  </si>
+  <si>
+    <t>Un langage propre est-il développé ?</t>
+  </si>
+  <si>
+    <t>La culture est-elle bureaucratique ? Fermée ? Ouverte ?Réactive ? Adaptative ?</t>
+  </si>
+  <si>
+    <t>La culture est-elle orientée marché, recherche, production ?</t>
+  </si>
+  <si>
+    <t>Le personnel a-t-il le sentiment d'appartenance ?</t>
+  </si>
+  <si>
+    <t>La culture est-elle adaptée à la stratégie d'entreprise ?</t>
+  </si>
+  <si>
+    <t>La culture est-elle adaptée au secteur et à son évolution ?</t>
+  </si>
+  <si>
+    <t>Fonction logistique</t>
+  </si>
+  <si>
+    <t>Fonction achat</t>
+  </si>
+  <si>
+    <t>Gestion de la qualité</t>
+  </si>
+  <si>
+    <t>Efficacité des approvisionnements (tx de disponibilité, délais de livraison)</t>
+  </si>
+  <si>
+    <t>Efficacité de la stratégie ACHATS (Analyse des besoins/marché/politique)</t>
+  </si>
+  <si>
+    <t>Identification des processus entreprise (objectifs et indicateurs à mettre en place pour les processus)</t>
+  </si>
+  <si>
+    <t>Politique des stocks (valeur et couverture)</t>
+  </si>
+  <si>
+    <t>Pré/séléction des fournisseurs</t>
+  </si>
+  <si>
+    <t>Identification des ressources existantes/nécessaires (RH, IT, etc)</t>
+  </si>
+  <si>
+    <t>Efficacité des transports (CM et taux de remplissage des moyens de transport)</t>
+  </si>
+  <si>
+    <t>Maîtrise de la négociation et gestion de la relation avec les fournisseurs</t>
+  </si>
+  <si>
+    <t>Assurer l'adhésion du haut management</t>
+  </si>
+  <si>
+    <t>Maîtrise des coûts</t>
+  </si>
+  <si>
+    <t>Contractualiser les relations</t>
+  </si>
+  <si>
+    <t>Assurer l'adhésion des collaborateurs à l'ensemble du système de gestion de la qualité</t>
+  </si>
+  <si>
+    <t>Efficacité de la qualité de service</t>
+  </si>
+  <si>
+    <t>Maîtriser l'éxecution des contrats</t>
+  </si>
+  <si>
+    <t>Pilotage des processus entreprise</t>
+  </si>
+  <si>
+    <t>Efficacité de l'image de l'entreprise</t>
+  </si>
+  <si>
+    <t>Piloter la performance achats/fournisseurs/transport</t>
+  </si>
+  <si>
+    <t>Création du système documentaire</t>
+  </si>
+  <si>
+    <t>Gestion des flux d'informations</t>
+  </si>
+  <si>
+    <t>Gestion du développement fournisseurs</t>
+  </si>
+  <si>
+    <t>Mise en place et contrôle des actions préventives / correctives</t>
+  </si>
+  <si>
+    <t>Possibilités d'externatlisation de l'entreprise (définit ce qu'elle maîtrise)</t>
   </si>
   <si>
     <t xml:space="preserve">Pilotage et gestion des activités du contrôle interne et externe du système de coordination qualité </t>
   </si>
   <si>
-    <t xml:space="preserve">Diversification de l'entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficacité des indicateurs de qualité en place</t>
+    <t>Diversification de l'entreprise</t>
+  </si>
+  <si>
+    <t>Efficacité des indicateurs de qualité en place</t>
   </si>
   <si>
     <t xml:space="preserve">Fonction Direction (management) </t>
   </si>
   <si>
-    <t xml:space="preserve">Actionnariat stable ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conseil d'administration performant ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipe de direction a-t-elle montré sa compétence, sa cohésion ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quels sont les objectifs personnels des dirigeants ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelles sont les formations de chaque dirigeants ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Âge de chaque dirigeant ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâches bien réparties ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les 4 fonction usuelles du management sont-elles appliquées?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Planification - Organisation - Direction - Contrôle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5: le + important</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5: le plus urgent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environnements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thème</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forces / faiblesses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urgence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction commerciale, marketing, vente 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction commerciale, marketing, vente 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction commerciale, marketing, vente 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction commerciale, marketing, vente 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction commerciale, marketing, vente 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction finance 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction finance 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction finance 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction finance 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction finance 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction production 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction production 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction production 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction production 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction production 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction R&amp;D 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction R&amp;D 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction R&amp;D 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction R&amp;D 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction R&amp;D 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction personnel (RH) 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction personnel (RH) 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction personnel (RH) 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction personnel (RH) 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction personnel (RH) 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction administration, gestion, organisation 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction administration, gestion, organisation 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction administration, gestion, organisation 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction administration, gestion, organisation 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction administration, gestion, organisation 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction logistique 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction logistique 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction logistique 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction logistique 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction logistique 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction achat 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction achat 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction achat 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction achat 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction achat 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de la qualité 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de la qualité 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de la qualité 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de la qualité 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de la qualité 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction Direction (management) 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction Direction (management) 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction Direction (management) 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction Direction (management) 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction Direction (management) 5</t>
+    <t>Actionnariat stable ?</t>
+  </si>
+  <si>
+    <t>Conseil d'administration performant ?</t>
+  </si>
+  <si>
+    <t>Equipe de direction a-t-elle montré sa compétence, sa cohésion ?</t>
+  </si>
+  <si>
+    <t>Quels sont les objectifs personnels des dirigeants ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les formations de chaque dirigeants ?</t>
+  </si>
+  <si>
+    <t>Âge de chaque dirigeant ?</t>
+  </si>
+  <si>
+    <t>Tâches bien réparties ?</t>
+  </si>
+  <si>
+    <t>Les 4 fonction usuelles du management sont-elles appliquées?</t>
+  </si>
+  <si>
+    <t>(Planification - Organisation - Direction - Contrôle)</t>
+  </si>
+  <si>
+    <t>5: le + important</t>
+  </si>
+  <si>
+    <t>5: le plus urgent</t>
+  </si>
+  <si>
+    <t>Environnements</t>
+  </si>
+  <si>
+    <t>Thème</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Forces / faiblesses</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Urgence</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fonction commerciale, marketing, vente 1</t>
+  </si>
+  <si>
+    <t>Fonction commerciale, marketing, vente 2</t>
+  </si>
+  <si>
+    <t>Fonction commerciale, marketing, vente 3</t>
+  </si>
+  <si>
+    <t>Fonction commerciale, marketing, vente 4</t>
+  </si>
+  <si>
+    <t>Fonction commerciale, marketing, vente 5</t>
+  </si>
+  <si>
+    <t>Fonction finance 1</t>
+  </si>
+  <si>
+    <t>Fonction finance 2</t>
+  </si>
+  <si>
+    <t>Fonction finance 3</t>
+  </si>
+  <si>
+    <t>Fonction finance 4</t>
+  </si>
+  <si>
+    <t>Fonction finance 5</t>
+  </si>
+  <si>
+    <t>Fonction production 1</t>
+  </si>
+  <si>
+    <t>Fonction production 2</t>
+  </si>
+  <si>
+    <t>Fonction production 3</t>
+  </si>
+  <si>
+    <t>Fonction production 4</t>
+  </si>
+  <si>
+    <t>Fonction production 5</t>
+  </si>
+  <si>
+    <t>Fonction R&amp;D 1</t>
+  </si>
+  <si>
+    <t>Fonction R&amp;D 2</t>
+  </si>
+  <si>
+    <t>Fonction R&amp;D 3</t>
+  </si>
+  <si>
+    <t>Fonction R&amp;D 4</t>
+  </si>
+  <si>
+    <t>Fonction R&amp;D 5</t>
+  </si>
+  <si>
+    <t>Fonction personnel (RH) 1</t>
+  </si>
+  <si>
+    <t>Fonction personnel (RH) 2</t>
+  </si>
+  <si>
+    <t>Fonction personnel (RH) 3</t>
+  </si>
+  <si>
+    <t>Fonction personnel (RH) 4</t>
+  </si>
+  <si>
+    <t>Fonction personnel (RH) 5</t>
+  </si>
+  <si>
+    <t>Fonction administration, gestion, organisation 1</t>
+  </si>
+  <si>
+    <t>Fonction administration, gestion, organisation 2</t>
+  </si>
+  <si>
+    <t>Fonction administration, gestion, organisation 3</t>
+  </si>
+  <si>
+    <t>Fonction administration, gestion, organisation 4</t>
+  </si>
+  <si>
+    <t>Fonction administration, gestion, organisation 5</t>
+  </si>
+  <si>
+    <t>Fonction logistique 1</t>
+  </si>
+  <si>
+    <t>Fonction logistique 2</t>
+  </si>
+  <si>
+    <t>Fonction logistique 3</t>
+  </si>
+  <si>
+    <t>Fonction logistique 4</t>
+  </si>
+  <si>
+    <t>Fonction logistique 5</t>
+  </si>
+  <si>
+    <t>Fonction achat 1</t>
+  </si>
+  <si>
+    <t>Fonction achat 2</t>
+  </si>
+  <si>
+    <t>Fonction achat 3</t>
+  </si>
+  <si>
+    <t>Fonction achat 4</t>
+  </si>
+  <si>
+    <t>Fonction achat 5</t>
+  </si>
+  <si>
+    <t>Gestion de la qualité 1</t>
+  </si>
+  <si>
+    <t>Gestion de la qualité 2</t>
+  </si>
+  <si>
+    <t>Gestion de la qualité 3</t>
+  </si>
+  <si>
+    <t>Gestion de la qualité 4</t>
+  </si>
+  <si>
+    <t>Gestion de la qualité 5</t>
+  </si>
+  <si>
+    <t>Fonction Direction (management) 1</t>
+  </si>
+  <si>
+    <t>Fonction Direction (management) 2</t>
+  </si>
+  <si>
+    <t>Fonction Direction (management) 3</t>
+  </si>
+  <si>
+    <t>Fonction Direction (management) 4</t>
+  </si>
+  <si>
+    <t>Fonction Direction (management) 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -639,22 +640,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -662,7 +648,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -670,7 +656,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -691,7 +677,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -699,7 +685,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -765,203 +751,145 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1020,53 +948,410 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="_x0000_t202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D75D2623-F6B4-41E5-BB9F-65E0421B5F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="89.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.66"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="89.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
     </row>
-    <row r="5" s="11" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
         <v>6</v>
@@ -1102,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
         <v>10</v>
@@ -1116,7 +1401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>13</v>
@@ -1130,7 +1415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
         <v>16</v>
@@ -1144,7 +1429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
         <v>19</v>
@@ -1158,7 +1443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
         <v>22</v>
@@ -1172,7 +1457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>25</v>
@@ -1186,7 +1471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>28</v>
@@ -1200,7 +1485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>31</v>
@@ -1214,7 +1499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
         <v>34</v>
@@ -1228,7 +1513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
         <v>37</v>
@@ -1242,7 +1527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
         <v>40</v>
@@ -1256,7 +1541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
         <v>43</v>
@@ -1268,7 +1553,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
         <v>45</v>
@@ -1278,7 +1563,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="13" t="s">
         <v>46</v>
@@ -1288,7 +1573,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="13" t="s">
         <v>47</v>
@@ -1298,7 +1583,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="13" t="s">
         <v>48</v>
@@ -1308,7 +1593,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +1613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
         <v>52</v>
@@ -1342,7 +1627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13" t="s">
         <v>55</v>
@@ -1356,7 +1641,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="13" t="s">
         <v>58</v>
@@ -1370,7 +1655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13" t="s">
         <v>61</v>
@@ -1384,7 +1669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13" t="s">
         <v>64</v>
@@ -1398,7 +1683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="13" t="s">
         <v>67</v>
@@ -1412,7 +1697,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13" t="s">
         <v>70</v>
@@ -1426,7 +1711,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13" t="s">
         <v>73</v>
@@ -1440,7 +1725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="13" t="s">
         <v>76</v>
@@ -1452,7 +1737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="12"/>
@@ -1462,7 +1747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="12"/>
@@ -1472,7 +1757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="12"/>
@@ -1482,7 +1767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="12"/>
@@ -1492,7 +1777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12"/>
@@ -1502,7 +1787,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="12"/>
@@ -1512,7 +1797,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="12"/>
@@ -1522,7 +1807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="12"/>
@@ -1532,7 +1817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="12"/>
@@ -1542,7 +1827,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="12"/>
@@ -1552,7 +1837,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="13" t="s">
         <v>91</v>
@@ -1582,7 +1867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
         <v>94</v>
@@ -1596,7 +1881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="13" t="s">
         <v>97</v>
@@ -1610,7 +1895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="13" t="s">
         <v>100</v>
@@ -1624,7 +1909,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="13" t="s">
         <v>103</v>
@@ -1638,7 +1923,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="13" t="s">
         <v>106</v>
@@ -1652,7 +1937,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="13" t="s">
         <v>109</v>
@@ -1666,7 +1951,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="22" t="s">
         <v>112</v>
@@ -1680,7 +1965,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="22" t="s">
         <v>114</v>
@@ -1692,7 +1977,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>2</v>
       </c>
@@ -1700,110 +1985,101 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="24"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.66"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" s="25" t="s">
         <v>126</v>
       </c>
@@ -1811,7 +2087,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>128</v>
       </c>
@@ -1834,7 +2110,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>135</v>
       </c>
@@ -1843,12 +2119,12 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="29" t="n">
-        <f aca="false">E6*F6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G6" s="29">
+        <f t="shared" ref="G6:G37" si="0">E6*F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>136</v>
       </c>
@@ -1857,12 +2133,12 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="29" t="n">
-        <f aca="false">E7*F7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>137</v>
       </c>
@@ -1871,12 +2147,12 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="29" t="n">
-        <f aca="false">E8*F8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G8" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>138</v>
       </c>
@@ -1885,12 +2161,12 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="29" t="n">
-        <f aca="false">E9*F9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="11" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>139</v>
       </c>
@@ -1899,12 +2175,12 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="29" t="n">
-        <f aca="false">E10*F10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>140</v>
       </c>
@@ -1913,12 +2189,12 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="29" t="n">
-        <f aca="false">E11*F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>141</v>
       </c>
@@ -1927,12 +2203,12 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="29" t="n">
-        <f aca="false">E12*F12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>142</v>
       </c>
@@ -1941,12 +2217,12 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="29" t="n">
-        <f aca="false">E13*F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>143</v>
       </c>
@@ -1955,12 +2231,12 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="29" t="n">
-        <f aca="false">E14*F14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>144</v>
       </c>
@@ -1969,12 +2245,12 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="29" t="n">
-        <f aca="false">E15*F15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>145</v>
       </c>
@@ -1983,12 +2259,12 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="29" t="n">
-        <f aca="false">E16*F16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>146</v>
       </c>
@@ -1997,12 +2273,12 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="29" t="n">
-        <f aca="false">E17*F17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>147</v>
       </c>
@@ -2011,12 +2287,12 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="29" t="n">
-        <f aca="false">E18*F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>148</v>
       </c>
@@ -2025,12 +2301,12 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="29" t="n">
-        <f aca="false">E19*F19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>149</v>
       </c>
@@ -2039,12 +2315,12 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="29" t="n">
-        <f aca="false">E20*F20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>150</v>
       </c>
@@ -2053,12 +2329,12 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="29" t="n">
-        <f aca="false">E21*F21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>151</v>
       </c>
@@ -2067,12 +2343,12 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="29" t="n">
-        <f aca="false">E22*F22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>152</v>
       </c>
@@ -2081,12 +2357,12 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="29" t="n">
-        <f aca="false">E23*F23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>153</v>
       </c>
@@ -2095,12 +2371,12 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="29" t="n">
-        <f aca="false">E24*F24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>154</v>
       </c>
@@ -2109,12 +2385,12 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="29" t="n">
-        <f aca="false">E25*F25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>155</v>
       </c>
@@ -2123,12 +2399,12 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="29" t="n">
-        <f aca="false">E26*F26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>156</v>
       </c>
@@ -2137,12 +2413,12 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="29" t="n">
-        <f aca="false">E27*F27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>157</v>
       </c>
@@ -2151,12 +2427,12 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="29" t="n">
-        <f aca="false">E28*F28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>158</v>
       </c>
@@ -2165,12 +2441,12 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="29" t="n">
-        <f aca="false">E29*F29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>159</v>
       </c>
@@ -2179,12 +2455,12 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="29" t="n">
-        <f aca="false">E30*F30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>160</v>
       </c>
@@ -2193,12 +2469,12 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="29" t="n">
-        <f aca="false">E31*F31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>161</v>
       </c>
@@ -2207,12 +2483,12 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="29" t="n">
-        <f aca="false">E32*F32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>162</v>
       </c>
@@ -2221,12 +2497,12 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="29" t="n">
-        <f aca="false">E33*F33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>163</v>
       </c>
@@ -2235,12 +2511,12 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="29" t="n">
-        <f aca="false">E34*F34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>164</v>
       </c>
@@ -2249,12 +2525,12 @@
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="29" t="n">
-        <f aca="false">E35*F35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>165</v>
       </c>
@@ -2263,12 +2539,12 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="29" t="n">
-        <f aca="false">E36*F36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>166</v>
       </c>
@@ -2277,12 +2553,12 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="29" t="n">
-        <f aca="false">E37*F37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>167</v>
       </c>
@@ -2291,12 +2567,12 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="29" t="n">
-        <f aca="false">E38*F38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="29">
+        <f t="shared" ref="G38:G69" si="1">E38*F38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>168</v>
       </c>
@@ -2305,12 +2581,12 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="29" t="n">
-        <f aca="false">E39*F39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>169</v>
       </c>
@@ -2319,12 +2595,12 @@
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="29" t="n">
-        <f aca="false">E40*F40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>170</v>
       </c>
@@ -2333,12 +2609,12 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="29" t="n">
-        <f aca="false">E41*F41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>171</v>
       </c>
@@ -2347,12 +2623,12 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="29" t="n">
-        <f aca="false">E42*F42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>172</v>
       </c>
@@ -2361,12 +2637,12 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="29" t="n">
-        <f aca="false">E43*F43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>173</v>
       </c>
@@ -2375,12 +2651,12 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="29" t="n">
-        <f aca="false">E44*F44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>174</v>
       </c>
@@ -2389,12 +2665,12 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="29" t="n">
-        <f aca="false">E45*F45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
         <v>175</v>
       </c>
@@ -2403,12 +2679,12 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="29" t="n">
-        <f aca="false">E46*F46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>176</v>
       </c>
@@ -2417,12 +2693,12 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="29" t="n">
-        <f aca="false">E47*F47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>177</v>
       </c>
@@ -2431,12 +2707,12 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="29" t="n">
-        <f aca="false">E48*F48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>178</v>
       </c>
@@ -2445,12 +2721,12 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="29" t="n">
-        <f aca="false">E49*F49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>179</v>
       </c>
@@ -2459,12 +2735,12 @@
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="29" t="n">
-        <f aca="false">E50*F50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>180</v>
       </c>
@@ -2473,12 +2749,12 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="29" t="n">
-        <f aca="false">E51*F51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>181</v>
       </c>
@@ -2487,12 +2763,12 @@
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="29" t="n">
-        <f aca="false">E52*F52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>182</v>
       </c>
@@ -2501,12 +2777,12 @@
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="29" t="n">
-        <f aca="false">E53*F53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>183</v>
       </c>
@@ -2515,12 +2791,12 @@
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
-      <c r="G54" s="29" t="n">
-        <f aca="false">E54*F54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>184</v>
       </c>
@@ -2529,21 +2805,16 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
-      <c r="G55" s="29" t="n">
-        <f aca="false">E55*F55</f>
+      <c r="G55" s="29">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <autoFilter ref="A5:G5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>